--- a/TechEventsHub/static/events.xlsx
+++ b/TechEventsHub/static/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muroo\Desktop\Internship !\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF1D27CF-C408-4AAF-B3C4-1485FF6F1391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53E9633-C603-4715-B722-7E459B91C63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A46EF57D-8952-4E00-9C49-A74E7325B734}"/>
   </bookViews>
@@ -35,93 +35,15 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="6">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="4"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="5"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="6">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
-    <bk>
-      <rc t="1" v="3"/>
-    </bk>
-    <bk>
-      <rc t="1" v="4"/>
-    </bk>
-    <bk>
-      <rc t="1" v="5"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t xml:space="preserve">companies </t>
   </si>
   <si>
-    <t xml:space="preserve">Events </t>
-  </si>
-  <si>
     <t>Links</t>
   </si>
   <si>
-    <t xml:space="preserve">QR Code for the event </t>
-  </si>
-  <si>
     <t>KARS</t>
   </si>
   <si>
@@ -155,22 +77,97 @@
     <t>https://www.instagram.com/p/C6k8rmbMCT7/?hl=en</t>
   </si>
   <si>
-    <t>Coded</t>
-  </si>
-  <si>
     <t>Datathon (event)</t>
   </si>
   <si>
     <t>https://www.instagram.com/reel/C6Ewpg4K1nv/?hl=en</t>
   </si>
   <si>
-    <t>Kuwait Foundation for advancement and Sciences (KFAS)</t>
-  </si>
-  <si>
-    <t>Renewables Academy Online-Berlin</t>
-  </si>
-  <si>
-    <t>https://kfas.formstack.com/forms/renac?utm_medium=social&amp;utm_source=linktree&amp;utm_campaign=renac+</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>Kuwait University</t>
+  </si>
+  <si>
+    <t>Caputure the flag(Rover) Kars Summer camp competition 2024</t>
+  </si>
+  <si>
+    <t>25th of July</t>
+  </si>
+  <si>
+    <t>2:30pm-5:30pm</t>
+  </si>
+  <si>
+    <t>Not Specified</t>
+  </si>
+  <si>
+    <t>Qualifying new volunteer trainers for the Youth Valley project, Maker Camps and global competitions</t>
+  </si>
+  <si>
+    <t>Al-Qusour Youth Center</t>
+  </si>
+  <si>
+    <t>9:00am-12:00pm</t>
+  </si>
+  <si>
+    <t>11&amp;15th Febuary</t>
+  </si>
+  <si>
+    <t>Calling all KCST innovators for Al Mulla Exchange Hackathon for Mobile App enthusiasts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Join us for the Symposium on Smart, Sustainable, and Secure Internet of Things (S4IoT’24) </t>
+  </si>
+  <si>
+    <t>7th-8th May</t>
+  </si>
+  <si>
+    <t>KCST Campus</t>
+  </si>
+  <si>
+    <t>8th of May</t>
+  </si>
+  <si>
+    <t>Coded Campus</t>
+  </si>
+  <si>
+    <t>و شنو كان تخصصك، إذا عندك اهتمام بعلم البيانات هذه المسابقة مناسبة لك 🤩</t>
+  </si>
+  <si>
+    <t>يعني حتى لو ما تفوز بالجائزة، راح تتعلم أشياء ما تقدّر بثمن </t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>static/event1.png</t>
+  </si>
+  <si>
+    <t>static/course6.png</t>
+  </si>
+  <si>
+    <t>static/event2.png</t>
+  </si>
+  <si>
+    <t>static/event3.png</t>
+  </si>
+  <si>
+    <t>static/event4.png</t>
+  </si>
+  <si>
+    <t>coded</t>
   </si>
 </sst>
 </file>
@@ -425,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,18 +440,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,6 +459,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -484,95 +489,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>3</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>4</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>5</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
-  <rel r:id="rId4"/>
-  <rel r:id="rId5"/>
-  <rel r:id="rId6"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -892,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F26BF3-D819-4C80-9CAB-28A0F0112DD6}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -904,102 +820,179 @@
     <col min="2" max="2" width="41.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="90.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="C3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="e" vm="3">
-        <v>#VALUE!</v>
+      <c r="D5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14" t="e" vm="4">
-        <v>#VALUE!</v>
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="16" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="25"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="19" t="e" vm="6">
-        <v>#VALUE!</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1008,6 +1001,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{41322E54-7FD6-41D2-93C0-87947865D24F}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{B2A96D5F-7426-4688-99BE-B6F0CC20AAAF}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{B1148D9F-2AFA-49EF-848D-D78A23297D4A}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{EE5ABDAC-ACEB-456C-BC01-9DEE3FA25AB2}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{81F71BCC-660F-45A6-BE9D-9FA8C4D8DF11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
